--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9028BA27-09CA-4F4D-B875-2EA6EDA3CE40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5950B2A-EF3A-4D5F-8696-E8449F8F30C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="170">
   <si>
     <t>cargo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sendDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发货日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,22 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sendPriovince</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendCity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receivePriovince</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveCity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发货省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,14 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sendStation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveStation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发送站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,14 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>customerNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关联字典表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,22 +121,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sendName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发货人名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">sendContacts </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendPhone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>receiveName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -429,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>station</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -445,30 +393,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stationName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>站台名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>createName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>创建人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -489,10 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>priceFactor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>价格因子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,22 +437,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>freightRateNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargoStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargoId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargoNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>货物编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,22 +445,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>orderNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否开具发票</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>proinceId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cityId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -565,15 +461,242 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>省份Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>areas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cahr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cahr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送站Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收站Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargoDress(主要记录货物位置)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>station_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freightRate_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_priovince</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_priovince</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">send_contacts </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_phone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +758,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -920,767 +1043,1155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N51"/>
+  <dimension ref="B3:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>92</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="I12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>111</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20">
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22">
+        <v>512</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="K28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="K32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="J33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
         <v>137</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="K34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="K35" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
       <c r="I36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" t="s">
         <v>111</v>
       </c>
-      <c r="J36" t="s">
-        <v>115</v>
+      <c r="L36">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
-      </c>
-      <c r="N37" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="K37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37">
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
+      <c r="I42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
         <v>75</v>
       </c>
-      <c r="C43" t="s">
-        <v>87</v>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="I46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" t="s">
+        <v>111</v>
+      </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>114</v>
+      </c>
+      <c r="L57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" t="s">
+        <v>136</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
         <v>131</v>
       </c>
-      <c r="G50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
+      <c r="J59" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I55:N55"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I12:N12"/>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5950B2A-EF3A-4D5F-8696-E8449F8F30C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95CDBA5-7E05-4BF6-AED3-FEA33003E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27555" yWindow="1410" windowWidth="17280" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="170">
-  <si>
-    <t>cargo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -117,30 +109,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发货人名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>receiveName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收货人名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>receiveContacts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receivePhone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收货人电话</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cargoName1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pack1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">billingWeight1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>包装1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>singleMaxWeight1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单个最大重量1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cargoName2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pack2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,14 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">billingWeight2 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleMaxWeight2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>length2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +277,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>serviceMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -341,22 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deliveryMileage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickUpMileage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliveryDress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickUpDress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取货地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,10 +345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>freightRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>价格因子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -469,10 +397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>provinces</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -500,10 +424,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>char</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -536,10 +456,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>areas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>areaid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,10 +500,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sta_station</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>省份编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -604,10 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cargoDress(主要记录货物位置)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>station_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -697,6 +605,125 @@
   </si>
   <si>
     <t>send_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_name1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">billing_weight1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_max_weight1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_name2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">billing_weight2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_max_weight2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick_up_mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick_up_dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可为空</t>
+  </si>
+  <si>
+    <t>是否可为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_cargo(货物表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_station(车站表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_freight_rate(运价表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_cargo_dress(货物位置)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinces(省份)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cities(城市)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>areas(区县表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获联系人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -756,11 +783,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1045,15 +1075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1061,7 +1091,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1071,92 +1101,95 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>255</v>
@@ -1164,25 +1197,25 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7">
         <v>64</v>
@@ -1190,28 +1223,28 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8">
         <v>64</v>
@@ -1219,62 +1252,62 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1282,22 +1315,25 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1307,89 +1343,95 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L14">
         <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1397,28 +1439,28 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -1426,65 +1468,65 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19">
         <v>64</v>
@@ -1492,25 +1534,25 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20">
         <v>64</v>
@@ -1518,109 +1560,139 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E22">
-        <v>512</v>
+        <v>255</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1630,65 +1702,86 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L29">
         <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L30">
         <v>11</v>
@@ -1696,19 +1789,25 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L31">
         <v>64</v>
@@ -1716,19 +1815,25 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L32">
         <v>11</v>
@@ -1736,19 +1841,25 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" t="s">
-        <v>65</v>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>512</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -1756,19 +1867,25 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
-        <v>66</v>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1776,19 +1893,25 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
-        <v>67</v>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L35">
         <v>64</v>
@@ -1796,19 +1919,25 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
-        <v>68</v>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L36">
         <v>64</v>
@@ -1816,19 +1945,25 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L37">
         <v>512</v>
@@ -1836,45 +1971,75 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="C38" t="s">
-        <v>70</v>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="C39" t="s">
-        <v>71</v>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
-        <v>72</v>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
-        <v>73</v>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="C42" t="s">
-        <v>74</v>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1884,68 +2049,92 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="s">
-        <v>75</v>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L44">
         <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L45">
         <v>11</v>
@@ -1953,19 +2142,25 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L46">
         <v>100</v>
@@ -1973,21 +2168,33 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -1997,113 +2204,172 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49">
+        <v>512</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L50">
         <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L51">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>64</v>
+      </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L52">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>64</v>
+      </c>
       <c r="I53" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L53">
         <v>6</v>
       </c>
     </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
       <c r="I55" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2113,47 +2379,50 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K57" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L57">
         <v>11</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="K58" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="L58">
         <v>6</v>
@@ -2161,13 +2430,13 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K59" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L59">
         <v>40</v>
@@ -2175,13 +2444,13 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J60" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L60">
         <v>6</v>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95CDBA5-7E05-4BF6-AED3-FEA33003E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DEB30B-B77B-4086-83AF-BF0FF87CB3EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27555" yWindow="1410" windowWidth="17280" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="930" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="222">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,158 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pack1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurance1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总重1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保价1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计费重量1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>length1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>width1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>height1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个最大重量1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pack2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurance2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>length2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>width2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>height2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物名称1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物名称2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总重2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保价2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计费重量2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个最大重量2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,6 +213,484 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>是否开具发票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-丢失；1-未签收；2-已签收；关联字典表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cahr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cahr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送站Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收站Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>station_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freightRate_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_priovince</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_priovince</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">send_contacts </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick_up_mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick_up_dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可为空</t>
+  </si>
+  <si>
+    <t>是否可为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_cargo(货物表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_station(车站表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_freight_rate(运价表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinces(省份)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cities(城市)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>areas(区县表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联字典表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费重量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个最大重量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billing_weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_max_weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-禁用；1-启用；该表没有删除功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_order(订单表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_order_dress(订单位置)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>货物编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -373,23 +699,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否开具发票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-丢失；1-未签收；2-已签收；关联字典表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
+    <t>关联货物表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联订单表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运价号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_complaint(投诉建议表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉人姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -397,70 +743,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinceId</t>
-  </si>
-  <si>
-    <t>provinceId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinceid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属省份编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
+    <t>user_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉人地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint_theme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment(附件表)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,262 +811,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>区县编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属城市编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cahr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cahr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送站Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收站Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varhcar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>station_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_by</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_station</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_station</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>freightRate_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargo_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargo_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_priovince</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_priovince</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">send_contacts </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_phone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_contacts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_phone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargo_name1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">billing_weight1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>single_max_weight1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cargo_name2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">billing_weight2 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>single_max_weight2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pick_up_mileage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_mileage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pick_up_dress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_dress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可为空</t>
-  </si>
-  <si>
-    <t>是否可为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_cargo(货物表)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_station(车站表)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_freight_rate(运价表)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_cargo_dress(货物位置)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinces(省份)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cities(城市)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>areas(区县表)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获联系人</t>
+    <t>文件编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be_complained</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被投诉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint_replay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未处理；1-处理中；2-已处理;3-已归档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,8 +934,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +953,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -777,23 +970,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
@@ -1073,31 +1271,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N60"/>
+  <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1113,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -1131,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>3</v>
@@ -1139,13 +1337,13 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -1154,13 +1352,13 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L5">
         <v>11</v>
@@ -1171,22 +1369,22 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -1197,7 +1395,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1209,10 +1407,10 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -1223,13 +1421,13 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -1238,10 +1436,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -1252,13 +1450,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1267,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -1278,22 +1476,22 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
@@ -1301,13 +1499,13 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1315,13 +1513,13 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1332,24 +1530,24 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1373,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>3</v>
@@ -1381,25 +1579,25 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1410,13 +1608,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1425,13 +1623,13 @@
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1439,13 +1637,13 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>64</v>
@@ -1454,13 +1652,13 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -1468,30 +1666,30 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1503,27 +1701,36 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
@@ -1534,22 +1741,22 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
@@ -1560,22 +1767,22 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
@@ -1583,22 +1790,28 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E22">
-        <v>255</v>
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
@@ -1606,25 +1819,25 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1633,85 +1846,88 @@
         <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="E27">
+        <v>512</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -1726,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>3</v>
@@ -1734,25 +1950,25 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" t="s">
-        <v>73</v>
-      </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>11</v>
@@ -1763,51 +1979,60 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" t="s">
         <v>162</v>
       </c>
-      <c r="I30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" t="s">
-        <v>87</v>
-      </c>
       <c r="K30" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>11</v>
+      </c>
+      <c r="N30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L31">
         <v>64</v>
@@ -1815,25 +2040,25 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L32">
         <v>11</v>
@@ -1841,25 +2066,25 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -1867,25 +2092,22 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1893,172 +2115,125 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L35">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L36">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L37">
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="B40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>162</v>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="E43">
+        <v>64</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
@@ -2073,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>3</v>
@@ -2081,31 +2256,25 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L44">
         <v>11</v>
@@ -2115,26 +2284,30 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>162</v>
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L45">
         <v>11</v>
@@ -2142,25 +2315,25 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="K46" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L46">
         <v>100</v>
@@ -2168,52 +2341,52 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48">
-        <v>64</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49">
-        <v>512</v>
+        <v>123</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>0</v>
@@ -2228,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>3</v>
@@ -2236,28 +2409,25 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
+        <v>123</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L50">
         <v>11</v>
@@ -2268,28 +2438,25 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="L51">
         <v>6</v>
@@ -2297,25 +2464,25 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I52" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L52">
         <v>40</v>
@@ -2323,25 +2490,25 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="L53">
         <v>6</v>
@@ -2349,35 +2516,56 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>157</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,21 +2579,33 @@
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>64</v>
+      </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L57">
         <v>11</v>
@@ -2415,56 +2615,572 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>64</v>
+      </c>
       <c r="I58" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="J58" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="L58">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="K59" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L59">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
       <c r="I60" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="J60" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="L60">
         <v>6</v>
       </c>
     </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="3">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="3">
+        <v>64</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="3">
+        <v>255</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I55:N55"/>
+  <mergeCells count="10">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I55:N55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DEB30B-B77B-4086-83AF-BF0FF87CB3EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DFDE35-98DB-446D-9C57-198909227C8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="930" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
         <v>166</v>
@@ -3171,16 +3171,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I55:N55"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="I27:N27"/>
     <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I55:N55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DFDE35-98DB-446D-9C57-198909227C8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83FFD9-3619-4CA1-AA75-8530C8AC006B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="223">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -904,6 +904,10 @@
   </si>
   <si>
     <t>0-未处理；1-处理中；2-已处理;3-已归档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代码中，该字段为cargo_no;前期设计数据书写错误，发现时已经来不及，所以将错就错了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,8 +946,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +969,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -979,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -989,6 +1006,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1273,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2223,17 +2242,21 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E43">
-        <v>64</v>
+      <c r="E43" s="5">
+        <v>64</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
@@ -3171,16 +3194,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B64:G64"/>
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I42:N42"/>
     <mergeCell ref="I48:N48"/>
     <mergeCell ref="I55:N55"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B64:G64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83FFD9-3619-4CA1-AA75-8530C8AC006B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03E9F0-263A-468A-9B47-B32E136992EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>freightRate_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>send_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,10 +703,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运价号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ex_complaint(投诉建议表)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -908,6 +900,10 @@
   </si>
   <si>
     <t>在代码中，该字段为cargo_no;前期设计数据书写错误，发现时已经来不及，所以将错就错了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联字典表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,11 +999,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1292,29 +1288,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1330,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -1348,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>3</v>
@@ -1388,10 +1384,10 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -1414,7 +1410,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1440,7 +1436,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1469,7 +1465,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1495,7 +1491,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1518,7 +1514,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1549,14 +1545,14 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="I12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1590,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>3</v>
@@ -1598,7 +1594,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1627,7 +1623,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1685,10 +1681,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
         <v>79</v>
@@ -1708,7 +1704,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1720,21 +1716,24 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1760,10 +1759,10 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -1786,7 +1785,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1809,19 +1808,19 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -1838,16 +1837,16 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
@@ -1870,27 +1869,27 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>64</v>
@@ -1898,13 +1897,13 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>64</v>
@@ -1918,35 +1917,35 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>512</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="I27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
         <v>169</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -1961,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>3</v>
@@ -1969,13 +1968,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29">
         <v>64</v>
@@ -2004,7 +2003,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2013,10 +2012,10 @@
         <v>33</v>
       </c>
       <c r="I30" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" t="s">
         <v>161</v>
-      </c>
-      <c r="J30" t="s">
-        <v>162</v>
       </c>
       <c r="K30" t="s">
         <v>55</v>
@@ -2025,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -2045,10 +2044,10 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s">
         <v>53</v>
@@ -2184,14 +2183,14 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2207,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>3</v>
@@ -2215,48 +2214,48 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>128</v>
       </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
       <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="5">
-        <v>64</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6" t="s">
-        <v>222</v>
+      <c r="E43" s="4">
+        <v>64</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
@@ -2271,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>3</v>
@@ -2279,10 +2278,10 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2308,20 +2307,20 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="3">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
         <v>57</v>
@@ -2338,10 +2337,10 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2364,10 +2363,10 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
@@ -2378,38 +2377,38 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>0</v>
@@ -2424,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>3</v>
@@ -2432,16 +2431,16 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
         <v>54</v>
@@ -2461,16 +2460,16 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
         <v>62</v>
@@ -2487,16 +2486,16 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" t="s">
         <v>64</v>
@@ -2513,16 +2512,16 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
         <v>66</v>
@@ -2539,55 +2538,55 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
-        <v>156</v>
-      </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>0</v>
@@ -2602,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>3</v>
@@ -2710,14 +2709,14 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -2733,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>3</v>
@@ -2741,30 +2740,30 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" t="s">
         <v>174</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
         <v>175</v>
-      </c>
-      <c r="D66" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
         <v>178</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" t="s">
-        <v>180</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -2772,13 +2771,13 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E68">
         <v>11</v>
@@ -2786,13 +2785,13 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
         <v>183</v>
-      </c>
-      <c r="C69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" t="s">
-        <v>185</v>
       </c>
       <c r="E69">
         <v>64</v>
@@ -2800,13 +2799,13 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70">
         <v>32</v>
@@ -2814,13 +2813,13 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71">
         <v>11</v>
@@ -2828,13 +2827,13 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E72">
         <v>255</v>
@@ -2842,13 +2841,13 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E73">
         <v>255</v>
@@ -2856,13 +2855,13 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E74">
         <v>512</v>
@@ -2870,13 +2869,13 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E75" s="3">
         <v>11</v>
@@ -2886,13 +2885,13 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E76" s="3">
         <v>64</v>
@@ -2902,13 +2901,13 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E77">
         <v>64</v>
@@ -2916,13 +2915,13 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E78">
         <v>512</v>
@@ -2930,13 +2929,13 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E79" s="3">
         <v>255</v>
@@ -2996,30 +2995,30 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
@@ -3035,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>3</v>
@@ -3043,30 +3042,30 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>176</v>
-      </c>
       <c r="E87">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E88">
         <v>64</v>
@@ -3074,13 +3073,13 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E89">
         <v>64</v>
@@ -3088,13 +3087,13 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E90">
         <v>64</v>
@@ -3102,13 +3101,13 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E91">
         <v>64</v>
@@ -3116,13 +3115,13 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E92">
         <v>64</v>
@@ -3130,13 +3129,13 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E93">
         <v>64</v>
@@ -3194,16 +3193,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I55:N55"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="I27:N27"/>
     <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I55:N55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/express字典表.xlsx
+++ b/doc/express字典表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03E9F0-263A-468A-9B47-B32E136992EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6146AA48-7F41-49EB-A81D-3E51C3C4D1FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="226">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0-丢失；1-未签收；2-已签收；关联字典表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -904,6 +900,26 @@
   </si>
   <si>
     <t>关联字典表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     -1-丢失；1-未签收；2-已签收；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-完结；1-未完结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单标记</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1288,15 +1304,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1304,7 +1320,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1326,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -1344,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>3</v>
@@ -1384,19 +1400,19 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
@@ -1410,7 +1426,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1422,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
@@ -1436,7 +1452,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1451,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -1465,13 +1481,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1480,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -1491,7 +1507,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1503,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -1514,13 +1530,13 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1528,7 +1544,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1546,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1556,7 +1572,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1586,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>3</v>
@@ -1594,13 +1610,13 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>64</v>
@@ -1623,13 +1639,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1638,13 +1654,13 @@
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1652,13 +1668,13 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>64</v>
@@ -1667,13 +1683,13 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -1681,19 +1697,19 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
@@ -1704,7 +1720,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1716,36 +1732,36 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
         <v>39</v>
@@ -1759,19 +1775,19 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
@@ -1785,19 +1801,19 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
@@ -1808,25 +1824,25 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
@@ -1837,16 +1853,16 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
@@ -1869,27 +1885,27 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>64</v>
@@ -1897,13 +1913,13 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>64</v>
@@ -1917,13 +1933,13 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27">
         <v>512</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1933,19 +1949,19 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
         <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>169</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -1960,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>3</v>
@@ -1968,13 +1984,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29">
         <v>64</v>
@@ -1986,7 +2002,7 @@
         <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L29">
         <v>11</v>
@@ -2003,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2012,19 +2028,19 @@
         <v>33</v>
       </c>
       <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" t="s">
         <v>160</v>
       </c>
-      <c r="J30" t="s">
-        <v>161</v>
-      </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L30">
         <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -2035,22 +2051,22 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31">
         <v>64</v>
@@ -2058,7 +2074,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -2070,10 +2086,10 @@
         <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
@@ -2084,7 +2100,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -2099,10 +2115,10 @@
         <v>49</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -2110,7 +2126,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -2122,10 +2138,10 @@
         <v>50</v>
       </c>
       <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" t="s">
         <v>52</v>
-      </c>
-      <c r="K34" t="s">
-        <v>53</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -2133,7 +2149,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -2142,27 +2158,42 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>223</v>
+      </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L36">
         <v>64</v>
@@ -2170,13 +2201,13 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
         <v>82</v>
       </c>
-      <c r="J37" t="s">
-        <v>83</v>
-      </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37">
         <v>512</v>
@@ -2184,7 +2215,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2206,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>3</v>
@@ -2214,25 +2245,25 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>126</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>127</v>
       </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>128</v>
-      </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -2242,20 +2273,20 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E43" s="4">
         <v>64</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
@@ -2270,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>3</v>
@@ -2278,10 +2309,10 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2290,13 +2321,13 @@
         <v>255</v>
       </c>
       <c r="I44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" t="s">
         <v>54</v>
-      </c>
-      <c r="J44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" t="s">
-        <v>55</v>
       </c>
       <c r="L44">
         <v>11</v>
@@ -2307,29 +2338,29 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="3">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L45">
         <v>11</v>
@@ -2337,10 +2368,10 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2349,13 +2380,13 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
         <v>58</v>
       </c>
-      <c r="J46" t="s">
-        <v>59</v>
-      </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L46">
         <v>100</v>
@@ -2363,10 +2394,10 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
@@ -2377,19 +2408,19 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -2399,16 +2430,16 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>0</v>
@@ -2423,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>3</v>
@@ -2431,25 +2462,25 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" t="s">
         <v>54</v>
-      </c>
-      <c r="J50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" t="s">
-        <v>55</v>
       </c>
       <c r="L50">
         <v>11</v>
@@ -2460,25 +2491,25 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" t="s">
         <v>62</v>
       </c>
-      <c r="J51" t="s">
-        <v>63</v>
-      </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51">
         <v>6</v>
@@ -2486,25 +2517,25 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L52">
         <v>40</v>
@@ -2512,25 +2543,25 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" t="s">
         <v>66</v>
       </c>
-      <c r="J53" t="s">
-        <v>67</v>
-      </c>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53">
         <v>6</v>
@@ -2538,33 +2569,33 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -2574,19 +2605,19 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
         <v>154</v>
       </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>0</v>
@@ -2601,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>3</v>
@@ -2609,7 +2640,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -2621,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="I57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" t="s">
         <v>54</v>
-      </c>
-      <c r="J57" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" t="s">
-        <v>55</v>
       </c>
       <c r="L57">
         <v>11</v>
@@ -2638,7 +2669,7 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>40</v>
@@ -2650,13 +2681,13 @@
         <v>64</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L58">
         <v>6</v>
@@ -2664,7 +2695,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -2673,13 +2704,13 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L59">
         <v>40</v>
@@ -2687,7 +2718,7 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
@@ -2696,13 +2727,13 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -2710,7 +2741,7 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2732,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>3</v>
@@ -2740,30 +2771,30 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>173</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
         <v>174</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
         <v>176</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>177</v>
-      </c>
-      <c r="D67" t="s">
-        <v>178</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -2771,13 +2802,13 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
         <v>179</v>
       </c>
-      <c r="C68" t="s">
-        <v>180</v>
-      </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E68">
         <v>11</v>
@@ -2785,13 +2816,13 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
         <v>181</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>182</v>
-      </c>
-      <c r="D69" t="s">
-        <v>183</v>
       </c>
       <c r="E69">
         <v>64</v>
@@ -2799,13 +2830,13 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
         <v>184</v>
       </c>
-      <c r="C70" t="s">
-        <v>185</v>
-      </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70">
         <v>32</v>
@@ -2813,13 +2844,13 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
         <v>186</v>
       </c>
-      <c r="C71" t="s">
-        <v>187</v>
-      </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71">
         <v>11</v>
@@ -2827,13 +2858,13 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" t="s">
         <v>188</v>
       </c>
-      <c r="C72" t="s">
-        <v>189</v>
-      </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72">
         <v>255</v>
@@ -2841,13 +2872,13 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
         <v>190</v>
       </c>
-      <c r="C73" t="s">
-        <v>191</v>
-      </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E73">
         <v>255</v>
@@ -2855,13 +2886,13 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
         <v>192</v>
       </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
       <c r="D74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E74">
         <v>512</v>
@@ -2869,13 +2900,13 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="3">
         <v>11</v>
@@ -2885,13 +2916,13 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" s="3">
         <v>64</v>
@@ -2901,13 +2932,13 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
         <v>211</v>
       </c>
-      <c r="C77" t="s">
-        <v>212</v>
-      </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77">
         <v>64</v>
@@ -2915,13 +2946,13 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" t="s">
         <v>213</v>
       </c>
-      <c r="C78" t="s">
-        <v>214</v>
-      </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78">
         <v>512</v>
@@ -2929,13 +2960,13 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E79" s="3">
         <v>255</v>
@@ -2945,7 +2976,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
@@ -2959,7 +2990,7 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
         <v>40</v>
@@ -2973,7 +3004,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
         <v>41</v>
@@ -2984,7 +3015,7 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -2995,24 +3026,24 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
         <v>215</v>
       </c>
-      <c r="C84" t="s">
-        <v>216</v>
-      </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3034,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>3</v>
@@ -3042,30 +3073,30 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>174</v>
-      </c>
-      <c r="E87">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88">
         <v>64</v>
@@ -3073,13 +3104,13 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
         <v>203</v>
       </c>
-      <c r="C89" t="s">
-        <v>204</v>
-      </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89">
         <v>64</v>
@@ -3087,13 +3118,13 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
         <v>198</v>
       </c>
-      <c r="C90" t="s">
-        <v>199</v>
-      </c>
       <c r="D90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90">
         <v>64</v>
@@ -3101,13 +3132,13 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
         <v>200</v>
       </c>
-      <c r="C91" t="s">
-        <v>201</v>
-      </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E91">
         <v>64</v>
@@ -3115,13 +3146,13 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92">
         <v>64</v>
@@ -3129,13 +3160,13 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
         <v>206</v>
       </c>
-      <c r="C93" t="s">
-        <v>207</v>
-      </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E93">
         <v>64</v>
@@ -3143,7 +3174,7 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
@@ -3157,7 +3188,7 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
@@ -3171,7 +3202,7 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
         <v>41</v>
@@ -3182,7 +3213,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
         <v>42</v>
@@ -3193,16 +3224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B64:G64"/>
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I42:N42"/>
     <mergeCell ref="I48:N48"/>
     <mergeCell ref="I55:N55"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B64:G64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
